--- a/google-drive/weeklyDeliverables/timesheets/group/week3/TimeSheet_Group15_Wk3.xlsx
+++ b/google-drive/weeklyDeliverables/timesheets/group/week3/TimeSheet_Group15_Wk3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomascleary/GoogleDrive/cits3200-deliverables/weeklyDeliverables/timesheets/group/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2FE1D-4948-924A-A313-26F614A6AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDA6F3E-03D4-B14E-ADDE-242B448DBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6360" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6700" yWindow="-28300" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1319,32 +1319,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,29 +1355,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1387,7 +1398,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1396,21 +1406,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1419,8 +1416,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1803,100 +1803,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
@@ -1917,83 +1917,83 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="74"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="74"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -2015,184 +2015,184 @@
       <c r="A14" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1">
       <c r="A15" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1">
       <c r="A17" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="84"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
@@ -2211,208 +2211,208 @@
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1"/>
     <row r="27" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="69"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="69"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="69"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="66"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="69"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="69"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="66"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="69"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="69"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
@@ -2431,38 +2431,38 @@
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="41" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="69"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -2521,106 +2521,106 @@
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="69"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="66"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="66"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="69"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="66"/>
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="69"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="66"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="69"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="66"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="69"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="66"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="10"/>
@@ -2694,78 +2694,78 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="65"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1"/>
     <row r="59" spans="1:26" ht="12.75" customHeight="1"/>
@@ -3712,6 +3712,31 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M11"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A48:M48"/>
     <mergeCell ref="A49:M49"/>
     <mergeCell ref="A50:M50"/>
     <mergeCell ref="A54:P57"/>
@@ -3722,31 +3747,6 @@
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A1:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3781,8 +3781,8 @@
       <c r="A1" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
@@ -3808,11 +3808,11 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
@@ -3838,11 +3838,11 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="15"/>
@@ -3868,11 +3868,11 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -3898,11 +3898,11 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -3931,8 +3931,8 @@
       <c r="A6" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -3961,8 +3961,8 @@
       <c r="A7" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -4016,39 +4016,39 @@
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="18">
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="94"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="92"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
@@ -4057,55 +4057,55 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="99" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="99" t="s">
+      <c r="G11" s="92"/>
+      <c r="H11" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="99" t="s">
+      <c r="I11" s="92"/>
+      <c r="J11" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="99" t="s">
+      <c r="K11" s="92"/>
+      <c r="L11" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="99" t="s">
+      <c r="M11" s="92"/>
+      <c r="N11" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="94"/>
-      <c r="P11" s="99" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="99" t="s">
+      <c r="Q11" s="92"/>
+      <c r="R11" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="94"/>
-      <c r="T11" s="99" t="s">
+      <c r="S11" s="92"/>
+      <c r="T11" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="94"/>
-      <c r="V11" s="99" t="s">
+      <c r="U11" s="92"/>
+      <c r="V11" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="94"/>
+      <c r="W11" s="92"/>
       <c r="X11" s="21" t="s">
         <v>57</v>
       </c>
@@ -4113,9 +4113,9 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="23" t="s">
         <v>58</v>
       </c>
@@ -5870,6 +5870,16 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:T10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -5883,16 +5893,6 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:T10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5906,11 +5906,11 @@
   </sheetPr>
   <dimension ref="A1:AU1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="16" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5929,30 +5929,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:47" ht="13.5" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:47" ht="13.5" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
@@ -5965,140 +5965,140 @@
       <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:47" ht="13.5" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A13" s="104" t="str">
+      <c r="A13" s="107" t="str">
         <f>IF(AND(COUNT(D17:D68)&gt;0,(D69&lt;&gt;100)),"Value does not sum to $100","Value is OK")</f>
         <v>Value is OK</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="94"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="94"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="100"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="100"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="92"/>
       <c r="AS14" s="36"/>
       <c r="AT14" s="36"/>
       <c r="AU14" s="36" t="s">
@@ -6106,85 +6106,85 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="11.25" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="107" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95" t="s">
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="107" t="s">
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="107" t="s">
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="107" t="s">
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="107" t="s">
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="107" t="s">
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="107" t="s">
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="107" t="s">
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="100"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="94"/>
-      <c r="AS15" s="108" t="s">
+      <c r="AP15" s="100"/>
+      <c r="AQ15" s="100"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="AT15" s="108" t="s">
+      <c r="AT15" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="AU15" s="108" t="s">
+      <c r="AU15" s="103" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="36" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="37" t="s">
         <v>101</v>
       </c>
@@ -6305,9 +6305,9 @@
       <c r="AR16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AS16" s="101"/>
-      <c r="AT16" s="101"/>
-      <c r="AU16" s="101"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
     </row>
     <row r="17" spans="1:47" ht="33.75" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -10132,6 +10132,21 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="U15:X15"/>
     <mergeCell ref="AS15:AS16"/>
     <mergeCell ref="AT15:AT16"/>
     <mergeCell ref="AU15:AU16"/>
@@ -10147,21 +10162,6 @@
     <mergeCell ref="AG15:AJ15"/>
     <mergeCell ref="AK15:AN15"/>
     <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="A13">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -10185,7 +10185,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -10322,18 +10322,18 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="47"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="94"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
